--- a/evaluation/grading.xlsx
+++ b/evaluation/grading.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\teaching\Machine_learning_for_Geociences\teaching-ml\grading\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\teaching\Machine_learning_for_Geociences\teaching-ml\evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F7D9F3-6B6E-48A5-B52B-0C5F429B0005}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5D4575-AA18-4B5F-9DBA-3CCB0E4B73A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -82,10 +82,10 @@
     <t>yes</t>
   </si>
   <si>
-    <t>Audit</t>
-  </si>
-  <si>
     <t>Exam1 (x/9)</t>
+  </si>
+  <si>
+    <t>Listener</t>
   </si>
 </sst>
 </file>
@@ -406,7 +406,7 @@
   <dimension ref="C1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -429,7 +429,7 @@
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="3:7" x14ac:dyDescent="0.25">
@@ -473,7 +473,7 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -484,7 +484,7 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G6">
         <v>7.5</v>
@@ -495,7 +495,7 @@
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F7">
         <v>10</v>

--- a/evaluation/grading.xlsx
+++ b/evaluation/grading.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\teaching\Machine_learning_for_Geociences\teaching-ml\evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5D4575-AA18-4B5F-9DBA-3CCB0E4B73A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D342ECE3-0B21-44CF-A0F9-2A53909324B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Grading" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
   <si>
     <t>Student</t>
   </si>
@@ -34,21 +34,12 @@
     <t>HW1</t>
   </si>
   <si>
-    <t>HM1</t>
-  </si>
-  <si>
     <t>Calculus and linear algebra excercises</t>
   </si>
   <si>
-    <t>HM2</t>
-  </si>
-  <si>
     <t>Python. Well logs from Michael Pycz GitHub</t>
   </si>
   <si>
-    <t>HM3</t>
-  </si>
-  <si>
     <t>Fix mistakes done in Exam 1</t>
   </si>
   <si>
@@ -86,6 +77,87 @@
   </si>
   <si>
     <t>Listener</t>
+  </si>
+  <si>
+    <t>HM4</t>
+  </si>
+  <si>
+    <t>Clustering</t>
+  </si>
+  <si>
+    <t>k-means theoretical</t>
+  </si>
+  <si>
+    <t>k-means coding from scratch</t>
+  </si>
+  <si>
+    <t>HW3</t>
+  </si>
+  <si>
+    <t>sklearn.cluster.KMeans()</t>
+  </si>
+  <si>
+    <t>Silhouette coefficient theoretical</t>
+  </si>
+  <si>
+    <t>Silhouette coefficient from scratch</t>
+  </si>
+  <si>
+    <t>sklearn.metrics.silhouette_score()</t>
+  </si>
+  <si>
+    <t>DBSCAN practice</t>
+  </si>
+  <si>
+    <t>ANN classification of MNIST</t>
+  </si>
+  <si>
+    <t>Decision Trees. Moon dataset</t>
+  </si>
+  <si>
+    <t>RF, SVM, ANN, .. Moon dataset</t>
+  </si>
+  <si>
+    <t>HW5</t>
+  </si>
+  <si>
+    <t>HW6</t>
+  </si>
+  <si>
+    <t>HW7</t>
+  </si>
+  <si>
+    <t>HW8</t>
+  </si>
+  <si>
+    <t>HW9</t>
+  </si>
+  <si>
+    <t>Ex4</t>
+  </si>
+  <si>
+    <t>HW7 MNIST</t>
+  </si>
+  <si>
+    <t>HW4 kmeans</t>
+  </si>
+  <si>
+    <t>HW6 DBSCAN</t>
+  </si>
+  <si>
+    <t>HW5 SILHOUETTE</t>
+  </si>
+  <si>
+    <t>HW8 DT</t>
+  </si>
+  <si>
+    <t>HW9 ENSEMBLE</t>
+  </si>
+  <si>
+    <t>Ex5</t>
+  </si>
+  <si>
+    <t>Ex6</t>
   </si>
 </sst>
 </file>
@@ -138,6 +210,28 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{ECE357D9-C3EA-46D2-A6A1-0E0F24996C83}" name="Table2" displayName="Table2" ref="A1:M7" totalsRowShown="0">
+  <autoFilter ref="A1:M7" xr:uid="{28EEDC90-7848-4341-8361-14F9D65B888C}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{41C042C8-B0CB-4B37-8472-F2633CD24DDB}" name="Student"/>
+    <tableColumn id="2" xr3:uid="{843DD89D-DAD8-46FD-A9B0-127816E80E74}" name="Signed up"/>
+    <tableColumn id="3" xr3:uid="{2C401843-12F2-4623-AB54-C931317962B0}" name="HW1"/>
+    <tableColumn id="4" xr3:uid="{0FB2AEDA-5B8C-4D60-98F2-CB284F2E399F}" name="HW2"/>
+    <tableColumn id="5" xr3:uid="{AAD94330-3518-4A43-9E8A-9760AB5FD073}" name="Exam1 (x/9)"/>
+    <tableColumn id="6" xr3:uid="{3E1336B9-E772-4BE0-B50A-F3940B3EDA35}" name="HW3"/>
+    <tableColumn id="7" xr3:uid="{4EF24AF8-5B11-42FA-A487-232BF880B6CE}" name="Ex4"/>
+    <tableColumn id="8" xr3:uid="{E40B76EC-42C0-4F00-95C2-32D0B7DEA525}" name="HW4 kmeans"/>
+    <tableColumn id="10" xr3:uid="{1BB2297D-7141-404E-9699-A88D79D0662F}" name="HW5 SILHOUETTE"/>
+    <tableColumn id="12" xr3:uid="{772151D6-3581-4B18-9492-D504D79B84DB}" name="HW6 DBSCAN"/>
+    <tableColumn id="14" xr3:uid="{DBF1793C-72B1-4270-8F6D-AEBFF3D05D19}" name="HW7 MNIST"/>
+    <tableColumn id="16" xr3:uid="{13F16EA2-5130-465E-96C2-0A20A6DF6F14}" name="HW8 DT"/>
+    <tableColumn id="17" xr3:uid="{F760BD45-CFFC-486C-B4A6-E9927CF96A41}" name="HW9 ENSEMBLE"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -403,148 +497,314 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:G7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
       <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>7.5</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>10</v>
+      </c>
+      <c r="J2">
+        <v>10</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>10</v>
+      </c>
+      <c r="M2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="E2">
-        <v>10</v>
-      </c>
-      <c r="G2">
+      <c r="E5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="I6">
+        <v>10</v>
+      </c>
+      <c r="J6">
+        <v>10</v>
+      </c>
+      <c r="L6">
+        <v>10</v>
+      </c>
+      <c r="M6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="E3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7">
-        <v>10</v>
-      </c>
-      <c r="G7">
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
         <v>8</v>
+      </c>
+      <c r="J7">
+        <v>6</v>
+      </c>
+      <c r="K7">
+        <v>10</v>
+      </c>
+      <c r="L7">
+        <v>10</v>
+      </c>
+      <c r="M7">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE1712D7-7EFF-4419-9D77-5036F3812AB3}">
-  <dimension ref="A2:B4"/>
+  <dimension ref="A2:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/evaluation/grading.xlsx
+++ b/evaluation/grading.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\teaching\Machine_learning_for_Geociences\teaching-ml\evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D342ECE3-0B21-44CF-A0F9-2A53909324B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46837EA-E734-479E-B170-FEEE1F99026C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
   <si>
     <t>Student</t>
   </si>
@@ -158,6 +158,15 @@
   </si>
   <si>
     <t>Ex6</t>
+  </si>
+  <si>
+    <t>Paper presentation</t>
+  </si>
+  <si>
+    <t>Exam 2</t>
+  </si>
+  <si>
+    <t>Exam 1</t>
   </si>
 </sst>
 </file>
@@ -689,13 +698,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE1712D7-7EFF-4419-9D77-5036F3812AB3}">
-  <dimension ref="A2:B22"/>
+  <dimension ref="A2:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -721,6 +733,11 @@
         <v>4</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+    </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>35</v>
@@ -801,6 +818,16 @@
       </c>
       <c r="B22" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/evaluation/grading.xlsx
+++ b/evaluation/grading.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\teaching\Machine_learning_for_Geociences\teaching-ml\evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46837EA-E734-479E-B170-FEEE1F99026C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E4DB4C4-137F-46CF-9FB0-794A75521E31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Grading" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
   <si>
     <t>Student</t>
   </si>
@@ -167,16 +167,25 @@
   </si>
   <si>
     <t>Exam 1</t>
+  </si>
+  <si>
+    <t>HW0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -222,12 +231,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{ECE357D9-C3EA-46D2-A6A1-0E0F24996C83}" name="Table2" displayName="Table2" ref="A1:M7" totalsRowShown="0">
-  <autoFilter ref="A1:M7" xr:uid="{28EEDC90-7848-4341-8361-14F9D65B888C}"/>
-  <tableColumns count="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{ECE357D9-C3EA-46D2-A6A1-0E0F24996C83}" name="Table2" displayName="Table2" ref="A1:N7" totalsRowShown="0">
+  <autoFilter ref="A1:N7" xr:uid="{28EEDC90-7848-4341-8361-14F9D65B888C}"/>
+  <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{41C042C8-B0CB-4B37-8472-F2633CD24DDB}" name="Student"/>
     <tableColumn id="2" xr3:uid="{843DD89D-DAD8-46FD-A9B0-127816E80E74}" name="Signed up"/>
-    <tableColumn id="3" xr3:uid="{2C401843-12F2-4623-AB54-C931317962B0}" name="HW1"/>
+    <tableColumn id="3" xr3:uid="{2C401843-12F2-4623-AB54-C931317962B0}" name="HW0"/>
+    <tableColumn id="9" xr3:uid="{615C4339-52F3-4DE7-AF95-D31C1D37DD5A}" name="HW1"/>
     <tableColumn id="4" xr3:uid="{0FB2AEDA-5B8C-4D60-98F2-CB284F2E399F}" name="HW2"/>
     <tableColumn id="5" xr3:uid="{AAD94330-3518-4A43-9E8A-9760AB5FD073}" name="Exam1 (x/9)"/>
     <tableColumn id="6" xr3:uid="{3E1336B9-E772-4BE0-B50A-F3940B3EDA35}" name="HW3"/>
@@ -506,27 +516,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -534,40 +544,43 @@
         <v>12</v>
       </c>
       <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>35</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>37</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>39</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>38</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>36</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>40</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -577,19 +590,16 @@
       <c r="C2">
         <v>10</v>
       </c>
-      <c r="D2">
-        <v>10</v>
-      </c>
       <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
         <v>7.5</v>
       </c>
-      <c r="G2">
-        <v>10</v>
-      </c>
       <c r="H2">
         <v>10</v>
       </c>
-      <c r="J2">
+      <c r="I2">
         <v>10</v>
       </c>
       <c r="K2">
@@ -601,8 +611,11 @@
       <c r="M2">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -613,7 +626,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -621,73 +634,77 @@
         <v>14</v>
       </c>
       <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
         <v>5.5</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>7.5</v>
       </c>
-      <c r="H6">
-        <v>10</v>
-      </c>
       <c r="I6">
         <v>10</v>
       </c>
       <c r="J6">
         <v>10</v>
       </c>
-      <c r="L6">
+      <c r="K6">
         <v>10</v>
       </c>
       <c r="M6">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="D7">
-        <v>10</v>
-      </c>
       <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
         <v>8</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>6</v>
       </c>
-      <c r="K7">
-        <v>10</v>
-      </c>
       <c r="L7">
         <v>10</v>
       </c>
       <c r="M7">
         <v>10</v>
       </c>
+      <c r="N7">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -698,10 +715,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE1712D7-7EFF-4419-9D77-5036F3812AB3}">
-  <dimension ref="A2:B26"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -709,11 +726,11 @@
     <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
     </row>

--- a/evaluation/grading.xlsx
+++ b/evaluation/grading.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\teaching\Machine_learning_for_Geociences\teaching-ml\evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E4DB4C4-137F-46CF-9FB0-794A75521E31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7070A9-B930-4099-8981-7AA4B3E66387}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Grading" sheetId="1" r:id="rId1"/>
-    <sheet name="README" sheetId="2" r:id="rId2"/>
+    <sheet name="Exam2" sheetId="3" r:id="rId2"/>
+    <sheet name="README" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
   <si>
     <t>Student</t>
   </si>
@@ -170,6 +171,27 @@
   </si>
   <si>
     <t>HW0</t>
+  </si>
+  <si>
+    <t>1a</t>
+  </si>
+  <si>
+    <t>1b</t>
+  </si>
+  <si>
+    <t>Moi</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Karla</t>
+  </si>
+  <si>
+    <t>Felipe</t>
+  </si>
+  <si>
+    <t>Root node missing</t>
   </si>
 </sst>
 </file>
@@ -518,7 +540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -714,6 +736,77 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0B5D04A-7201-4654-B095-4C8A83EBE335}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE1712D7-7EFF-4419-9D77-5036F3812AB3}">
   <dimension ref="A1:B26"/>
   <sheetViews>

--- a/evaluation/grading.xlsx
+++ b/evaluation/grading.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\teaching\Machine_learning_for_Geociences\teaching-ml\evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7070A9-B930-4099-8981-7AA4B3E66387}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4ECAF0F-699C-4A53-9BDB-0EC0AB90E1BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Grading" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
   <si>
     <t>Student</t>
   </si>
@@ -192,6 +192,9 @@
   </si>
   <si>
     <t>Root node missing</t>
+  </si>
+  <si>
+    <t>Final</t>
   </si>
 </sst>
 </file>
@@ -253,11 +256,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{ECE357D9-C3EA-46D2-A6A1-0E0F24996C83}" name="Table2" displayName="Table2" ref="A1:N7" totalsRowShown="0">
-  <autoFilter ref="A1:N7" xr:uid="{28EEDC90-7848-4341-8361-14F9D65B888C}"/>
-  <tableColumns count="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{ECE357D9-C3EA-46D2-A6A1-0E0F24996C83}" name="Table2" displayName="Table2" ref="A1:O7" totalsRowShown="0">
+  <autoFilter ref="A1:O7" xr:uid="{28EEDC90-7848-4341-8361-14F9D65B888C}"/>
+  <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{41C042C8-B0CB-4B37-8472-F2633CD24DDB}" name="Student"/>
     <tableColumn id="2" xr3:uid="{843DD89D-DAD8-46FD-A9B0-127816E80E74}" name="Signed up"/>
+    <tableColumn id="11" xr3:uid="{BF22F0A3-D8BD-456F-9CBA-3B5237BEBC05}" name="Final"/>
     <tableColumn id="3" xr3:uid="{2C401843-12F2-4623-AB54-C931317962B0}" name="HW0"/>
     <tableColumn id="9" xr3:uid="{615C4339-52F3-4DE7-AF95-D31C1D37DD5A}" name="HW1"/>
     <tableColumn id="4" xr3:uid="{0FB2AEDA-5B8C-4D60-98F2-CB284F2E399F}" name="HW2"/>
@@ -538,27 +542,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" customWidth="1"/>
-    <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -566,43 +570,46 @@
         <v>12</v>
       </c>
       <c r="C1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" t="s">
         <v>47</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>35</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>37</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>39</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>38</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>36</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>40</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -610,21 +617,21 @@
         <v>13</v>
       </c>
       <c r="C2">
-        <v>10</v>
-      </c>
-      <c r="E2">
+        <v>9</v>
+      </c>
+      <c r="D2">
         <v>10</v>
       </c>
       <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2">
         <v>7.5</v>
       </c>
-      <c r="H2">
-        <v>10</v>
-      </c>
       <c r="I2">
         <v>10</v>
       </c>
-      <c r="K2">
+      <c r="J2">
         <v>10</v>
       </c>
       <c r="L2">
@@ -636,92 +643,104 @@
       <c r="N2">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="C3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="E4">
-        <v>10</v>
+      <c r="C4">
+        <v>9</v>
       </c>
       <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4">
         <v>5.5</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="F6">
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="G6">
         <v>7.5</v>
       </c>
-      <c r="I6">
-        <v>10</v>
-      </c>
       <c r="J6">
         <v>10</v>
       </c>
       <c r="K6">
         <v>10</v>
       </c>
-      <c r="M6">
+      <c r="L6">
         <v>10</v>
       </c>
       <c r="N6">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="E7">
+      <c r="C7">
         <v>10</v>
       </c>
       <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7">
         <v>8</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>6</v>
       </c>
-      <c r="L7">
-        <v>10</v>
-      </c>
       <c r="M7">
         <v>10</v>
       </c>
       <c r="N7">
+        <v>10</v>
+      </c>
+      <c r="O7">
         <v>10</v>
       </c>
     </row>
@@ -739,7 +758,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0B5D04A-7201-4654-B095-4C8A83EBE335}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
